--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD55EEA-080E-4637-AF9D-15E64C12ED90}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094A11FB-2ADC-48C9-93ED-90D5A4E453FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -32,6 +33,27 @@
   <si>
     <t>c</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -74,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -358,7 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -394,4 +417,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8881A706-F5A1-4742-B002-61E3FFAFCD04}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test/a.xlsx
+++ b/test/a.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094A11FB-2ADC-48C9-93ED-90D5A4E453FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A56ED-1212-4BB1-9EBE-30D1BC7E16AB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -33,27 +32,6 @@
   <si>
     <t>c</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
 </sst>
 </file>
@@ -96,9 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -381,7 +358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -417,75 +394,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8881A706-F5A1-4742-B002-61E3FFAFCD04}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>